--- a/data/trans_dic/IP2003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,34; 30,02</t>
+          <t>8,07; 15,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,33; 28,74</t>
+          <t>8,14; 15,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,74</t>
+          <t>7,03; 13,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,72</t>
+          <t>5,34; 12,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 37,18</t>
+          <t>9,21; 16,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 35,46</t>
+          <t>10,67; 18,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,97; 28,75</t>
+          <t>7,2; 14,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 26,27</t>
+          <t>8,65; 17,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 32,07</t>
+          <t>9,43; 14,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 30,35</t>
+          <t>10,16; 15,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,85</t>
+          <t>8,03; 12,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 23,48</t>
+          <t>7,68; 13,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,18</t>
+          <t>21,34; 30,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 15,18</t>
+          <t>20,33; 28,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,37</t>
+          <t>19,58; 27,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,46</t>
+          <t>14,42; 23,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,75</t>
+          <t>27,94; 37,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 18,58</t>
+          <t>25,88; 35,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,15</t>
+          <t>19,97; 28,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 17,49</t>
+          <t>15,19; 26,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,56</t>
+          <t>25,86; 32,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,02</t>
+          <t>24,0; 30,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,47</t>
+          <t>20,84; 26,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,47</t>
+          <t>16,18; 23,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,79</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0; 1,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,77</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,42</t>
+          <t>0; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0; 1,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,47</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,95</t>
+          <t>0; 0,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,04</t>
+          <t>0; 0,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,37</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,18</t>
+          <t>2,56; 6,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 15,18</t>
+          <t>3,48; 8,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,37</t>
+          <t>2,68; 7,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,46</t>
+          <t>3,89; 10,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,75</t>
+          <t>2,71; 7,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 18,58</t>
+          <t>2,62; 7,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,15</t>
+          <t>3,35; 8,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 17,49</t>
+          <t>3,96; 10,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,56</t>
+          <t>2,95; 5,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,02</t>
+          <t>3,61; 7,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,47</t>
+          <t>3,61; 6,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,47</t>
+          <t>4,77; 9,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,34; 30,02</t>
+          <t>16,39; 27,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 28,74</t>
+          <t>15,24; 25,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,74</t>
+          <t>14,9; 24,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,72</t>
+          <t>7,58; 15,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 37,18</t>
+          <t>21,1; 34,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,88; 35,46</t>
+          <t>22,5; 34,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,97; 28,75</t>
+          <t>13,83; 23,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 26,27</t>
+          <t>11,8; 22,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,86; 32,07</t>
+          <t>20,54; 28,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,0; 30,35</t>
+          <t>20,15; 28,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,85</t>
+          <t>15,23; 21,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 23,48</t>
+          <t>10,76; 17,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>20,6%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 16,33</t>
+          <t>22,86; 32,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,44</t>
+          <t>20,5; 31,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 15,14</t>
+          <t>19,28; 30,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,76</t>
+          <t>15,7; 27,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,19; 19,93</t>
+          <t>28,97; 40,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,21</t>
+          <t>27,39; 39,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,73</t>
+          <t>19,79; 30,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,1</t>
+          <t>16,06; 29,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 17,45</t>
+          <t>27,29; 34,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 16,49</t>
+          <t>25,67; 33,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 14,83</t>
+          <t>21,09; 29,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,55</t>
+          <t>16,81; 25,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 16,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 15,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 15,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 16,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 20,17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 19,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,56; 16,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,02; 18,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 17,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 16,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,68; 14,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 16,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP2003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 10,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,6</t>
+          <t>2,53; 6,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,17</t>
+          <t>3,28; 8,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>2,59; 7,17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 10,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 7,19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>2,68; 7,31</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,89; 10,58</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 7,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 7,31</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,97</t>
+          <t>3,33; 8,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 10,66</t>
+          <t>4,1; 11,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,99</t>
+          <t>3,09; 6,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,02</t>
+          <t>3,57; 7,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,98</t>
+          <t>3,56; 6,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,51</t>
+          <t>4,65; 9,55</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 27,45</t>
+          <t>16,21; 27,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,24; 25,3</t>
+          <t>15,12; 25,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 24,7</t>
+          <t>15,13; 24,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,26</t>
+          <t>7,66; 16,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 34,83</t>
+          <t>21,26; 34,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 34,9</t>
+          <t>22,32; 34,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 23,28</t>
+          <t>13,08; 22,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 22,81</t>
+          <t>11,98; 22,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,54; 28,81</t>
+          <t>20,56; 28,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 28,02</t>
+          <t>20,15; 28,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,64</t>
+          <t>15,25; 22,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 17,4</t>
+          <t>10,93; 17,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 32,27</t>
+          <t>22,58; 32,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,5; 31,69</t>
+          <t>21,18; 31,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,28; 30,34</t>
+          <t>19,3; 30,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 27,92</t>
+          <t>15,87; 27,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 40,11</t>
+          <t>29,57; 40,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,39; 39,69</t>
+          <t>27,62; 39,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 30,98</t>
+          <t>19,95; 31,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 29,97</t>
+          <t>15,88; 29,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,29; 34,49</t>
+          <t>27,17; 34,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,67; 33,54</t>
+          <t>25,49; 33,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,09; 29,11</t>
+          <t>21,27; 29,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 25,64</t>
+          <t>17,07; 26,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,65</t>
+          <t>12,14; 16,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,29</t>
+          <t>11,11; 15,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,2</t>
+          <t>10,81; 15,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,67</t>
+          <t>10,98; 16,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,17</t>
+          <t>15,33; 20,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,23</t>
+          <t>14,61; 19,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,05</t>
+          <t>11,57; 15,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,52</t>
+          <t>11,91; 18,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,33</t>
+          <t>14,12; 17,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,43</t>
+          <t>13,47; 16,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 14,84</t>
+          <t>11,63; 14,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,47</t>
+          <t>12,0; 16,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2003-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,76</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,49</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,39</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 1,56</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,45</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,35</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 11,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,89</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,24%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,52%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>4,51%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,52%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,8</t>
+          <t>2,83; 7,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,42</t>
+          <t>2,57; 7,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,17</t>
+          <t>3,37; 9,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 10,23</t>
+          <t>3,8; 10,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,19</t>
+          <t>2,59; 6,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,31</t>
+          <t>3,57; 8,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,77</t>
+          <t>2,49; 7,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,16</t>
+          <t>3,91; 10,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,2</t>
+          <t>3,12; 6,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,05</t>
+          <t>3,66; 6,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,88</t>
+          <t>3,53; 6,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,55</t>
+          <t>4,55; 9,32</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>21,7%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>20,02%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>19,32%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,25%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>27,55%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>27,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,7%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 27,6</t>
+          <t>21,68; 34,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 25,36</t>
+          <t>22,57; 34,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,13; 24,87</t>
+          <t>13,27; 22,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 16,06</t>
+          <t>12,58; 24,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,26; 34,04</t>
+          <t>16,33; 27,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 34,54</t>
+          <t>15,2; 25,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 22,75</t>
+          <t>15,17; 24,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 22,38</t>
+          <t>7,65; 16,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 28,74</t>
+          <t>20,22; 28,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 28,12</t>
+          <t>20,42; 27,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,08</t>
+          <t>15,22; 22,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 17,63</t>
+          <t>10,83; 17,86</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>27,31%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>25,67%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>24,61%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34,46%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>33,18%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>25,38%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>24,02%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 32,43</t>
+          <t>28,9; 39,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 31,49</t>
+          <t>27,52; 39,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,3; 30,66</t>
+          <t>20,21; 31,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 27,67</t>
+          <t>16,9; 49,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 40,66</t>
+          <t>22,71; 32,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 39,15</t>
+          <t>20,68; 30,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 31,76</t>
+          <t>19,07; 29,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 29,56</t>
+          <t>16,83; 32,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,17; 34,59</t>
+          <t>26,72; 34,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,49; 33,77</t>
+          <t>25,27; 33,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 29,11</t>
+          <t>21,38; 29,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 26,52</t>
+          <t>18,4; 36,31</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>14,24%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>13,19%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>12,97%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>13,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>16,78%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,51%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 16,58</t>
+          <t>15,19; 19,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,39</t>
+          <t>14,38; 19,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 15,1</t>
+          <t>11,24; 15,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,78</t>
+          <t>12,76; 28,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,04</t>
+          <t>12,22; 16,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,61; 19,18</t>
+          <t>11,29; 15,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 15,85</t>
+          <t>11,05; 15,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,58</t>
+          <t>11,46; 18,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 17,43</t>
+          <t>14,28; 17,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,47; 16,43</t>
+          <t>13,3; 16,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 14,75</t>
+          <t>11,75; 14,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,29</t>
+          <t>13,05; 21,88</t>
         </is>
       </c>
     </row>
